--- a/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxOthers.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxOthers.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09532E75-D2ED-4090-88C2-5D89A426A87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -301,14 +302,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>05.法院扣薪
-06.理賠金
-07.代收款-債權協商
-09.其他
-11.匯款轉帳預先作業</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>Note</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -385,7 +378,23 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode:RepayType
+    <t>detSeqFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate =  ,AND BatchNo =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>05:法院扣薪
+06:理賠金
+07:代收款-債權協商
+09:其他
+11:匯款轉帳預先作業</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.RepayType
 1:期款
 2:部分償還
 3:結案
@@ -396,19 +405,11 @@
 9:其他</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
-  <si>
-    <t>detSeqFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDate =  ,AND BatchNo =</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="12"/>
@@ -667,7 +668,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -758,6 +759,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -793,6 +811,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -968,11 +1003,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1171,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="145.80000000000001">
@@ -1179,7 +1214,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>21</v>
@@ -1191,7 +1226,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1211,7 +1246,7 @@
         <v>18</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1219,10 +1254,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>83</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>84</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>33</v>
@@ -1309,10 +1344,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>77</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>78</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>30</v>
@@ -1363,7 +1398,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>28</v>
@@ -1479,7 +1514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1511,7 +1546,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1519,7 +1554,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1527,7 +1562,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="32.4">
@@ -1535,15 +1570,15 @@
         <v>74</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>38</v>
@@ -1551,34 +1586,34 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
